--- a/输液单.xlsx
+++ b/输液单.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\IVSlip\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23D5C4CD-EB7A-4928-98F2-9CE846EE701C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EBBF4B4-24FA-45F4-80BA-8B5781110EDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8835" yWindow="4725" windowWidth="27045" windowHeight="15360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16920" yWindow="3570" windowWidth="27045" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="打印页" sheetId="1" r:id="rId1"/>
@@ -26,13 +26,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
   <si>
     <t>性别：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>姓名：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -41,6 +37,22 @@
   </si>
   <si>
     <t>年龄：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1# 姓名：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2# 姓名：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3# 姓名：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4# 姓名：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -432,8 +444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -443,7 +455,7 @@
   <sheetData>
     <row r="2" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -461,7 +473,7 @@
     </row>
     <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
@@ -469,7 +481,7 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4" s="2"/>
     </row>
@@ -491,7 +503,7 @@
     </row>
     <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
@@ -499,7 +511,7 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7" s="2"/>
     </row>
@@ -521,7 +533,7 @@
     </row>
     <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
@@ -529,7 +541,7 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10" s="2"/>
     </row>
@@ -551,7 +563,7 @@
     </row>
     <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
@@ -559,7 +571,7 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13" s="2"/>
     </row>
@@ -595,7 +607,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DBD1958-2FA6-4E7A-8B19-3B42D23ABDE6}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>

--- a/输液单.xlsx
+++ b/输液单.xlsx
@@ -1,25 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\IVSlip\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EBBF4B4-24FA-45F4-80BA-8B5781110EDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16920" yWindow="3570" windowWidth="27045" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="23040" windowHeight="9324"/>
   </bookViews>
   <sheets>
     <sheet name="打印页" sheetId="1" r:id="rId1"/>
     <sheet name="数据页" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -28,50 +30,42 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
   <si>
-    <t>性别：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>史中英诊所输液单</t>
   </si>
   <si>
-    <t>史中英诊所输液单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>1# 姓名：</t>
+  </si>
+  <si>
+    <t>性别：</t>
   </si>
   <si>
     <t>年龄：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1# 姓名：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2# 姓名：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>3# 姓名：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>4# 姓名：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -79,12 +73,162 @@
       <sz val="18"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -93,12 +237,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -109,9 +439,20 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -119,10 +460,95 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -130,50 +556,240 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color theme="4"/>
       </top>
-      <bottom/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -222,7 +838,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -257,7 +873,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -431,193 +1047,191 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A2:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="5" width="10.6296296296296" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.8888888888889" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+    <row r="2" ht="24.95" customHeight="1" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" ht="6.95" customHeight="1" spans="1:6">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" ht="20.1" customHeight="1" spans="1:6">
+      <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-    </row>
-    <row r="3" spans="1:6" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2" t="s">
-        <v>0</v>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" ht="112" customHeight="1" spans="1:6">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" ht="6.95" customHeight="1" spans="1:6">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" ht="20.1" customHeight="1" spans="1:6">
+      <c r="A7" s="4" t="s">
+        <v>4</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2" t="s">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-    </row>
-    <row r="6" spans="1:6" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>4</v>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4" t="s">
+        <v>3</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2" t="s">
-        <v>0</v>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" ht="112" customHeight="1" spans="1:6">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" ht="6.95" customHeight="1" spans="1:6">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" ht="20.1" customHeight="1" spans="1:6">
+      <c r="A10" s="4" t="s">
+        <v>5</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2" t="s">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-    </row>
-    <row r="9" spans="1:6" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>5</v>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4" t="s">
+        <v>3</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2" t="s">
-        <v>0</v>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" ht="112" customHeight="1" spans="1:6">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" ht="6.95" customHeight="1" spans="1:6">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" ht="20.1" customHeight="1" spans="1:6">
+      <c r="A13" s="4" t="s">
+        <v>6</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2" t="s">
+      <c r="B13" s="4"/>
+      <c r="C13" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-    </row>
-    <row r="12" spans="1:6" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>6</v>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4" t="s">
+        <v>3</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-    </row>
-    <row r="15" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-    </row>
-    <row r="16" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" ht="112" customHeight="1" spans="1:6">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" ht="24" customHeight="1" spans="5:6">
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" ht="28.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="E15:F15"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="A8:F8"/>
     <mergeCell ref="A11:F11"/>
     <mergeCell ref="A14:F14"/>
+    <mergeCell ref="E15:F15"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="11" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.196850393700787" right="0.196850393700787" top="0.196850393700787" bottom="0.196850393700787" header="0" footer="0"/>
+  <pageSetup paperSize="11" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DBD1958-2FA6-4E7A-8B19-3B42D23ABDE6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="13.75" customWidth="1"/>
     <col min="5" max="5" width="9.75" customWidth="1"/>
   </cols>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/输液单.xlsx
+++ b/输液单.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\IVSlip\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFB6809F-E26C-4494-80D4-02FDA911877F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06A6DD76-C0FB-4780-A5F8-CA8A1A2DF6A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8550" yWindow="4275" windowWidth="27045" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="打印页" sheetId="1" r:id="rId1"/>
@@ -73,12 +73,14 @@
       <sz val="18"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -145,7 +147,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -159,14 +161,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -731,7 +734,7 @@
   <dimension ref="A2:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -742,14 +745,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:6" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
@@ -774,12 +777,12 @@
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" ht="111.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:6" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
@@ -804,12 +807,12 @@
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" ht="111.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
     </row>
     <row r="9" spans="1:6" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
@@ -834,12 +837,12 @@
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" ht="111.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
     </row>
     <row r="12" spans="1:6" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
@@ -864,16 +867,16 @@
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" ht="111.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
     </row>
     <row r="15" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
@@ -897,13 +900,15 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="9.75" customWidth="1"/>
+    <col min="1" max="1" width="13.75" style="5" customWidth="1"/>
+    <col min="2" max="4" width="9" style="5"/>
+    <col min="5" max="5" width="9.75" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="5"/>
   </cols>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/输液单.xlsx
+++ b/输液单.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\IVSlip\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06A6DD76-C0FB-4780-A5F8-CA8A1A2DF6A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F955AD92-B336-48F4-B12D-2FBB52CD1B69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8550" yWindow="4275" windowWidth="27045" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11355" yWindow="4770" windowWidth="27045" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="打印页" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
   <si>
     <t>史中英诊所输液单</t>
   </si>
@@ -55,13 +55,17 @@
   </si>
   <si>
     <t>4# 姓名：</t>
+  </si>
+  <si>
+    <t>药费: ￥</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,6 +90,23 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -147,7 +168,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -162,6 +183,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -169,7 +196,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -186,291 +213,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>322048</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>1136140</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="700448" cy="311496"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="矩形 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED7B13AB-7E58-81DB-484B-5E588813864A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4380526" y="1964401"/>
-          <a:ext cx="700448" cy="311496"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" cap="none" spc="0">
-              <a:ln w="0"/>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:schemeClr val="dk1">
-                    <a:alpha val="40000"/>
-                  </a:schemeClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </a:rPr>
-            <a:t>qdivgtt</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="0" cap="none" spc="0">
-            <a:ln w="0"/>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:effectLst>
-              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                <a:schemeClr val="dk1">
-                  <a:alpha val="40000"/>
-                </a:schemeClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>323023</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>1134719</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="700448" cy="311496"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="矩形 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D953E59D-E6B2-4F50-85A6-E7ED2DC89D51}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4381501" y="3710610"/>
-          <a:ext cx="700448" cy="311496"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" cap="none" spc="0">
-              <a:ln w="0"/>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:schemeClr val="dk1">
-                    <a:alpha val="40000"/>
-                  </a:schemeClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </a:rPr>
-            <a:t>qdivgtt</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="0" cap="none" spc="0">
-            <a:ln w="0"/>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:effectLst>
-              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                <a:schemeClr val="dk1">
-                  <a:alpha val="40000"/>
-                </a:schemeClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>318053</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>1138035</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="700448" cy="311496"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="矩形 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96785D01-629A-49C4-B599-773A4D633979}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4376531" y="5461557"/>
-          <a:ext cx="700448" cy="311496"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" cap="none" spc="0">
-              <a:ln w="0"/>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:schemeClr val="dk1">
-                    <a:alpha val="40000"/>
-                  </a:schemeClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </a:rPr>
-            <a:t>qdivgtt</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="0" cap="none" spc="0">
-            <a:ln w="0"/>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:effectLst>
-              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                <a:schemeClr val="dk1">
-                  <a:alpha val="40000"/>
-                </a:schemeClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>323021</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>1134719</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="700448" cy="311496"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="矩形 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9770E2FD-F092-4F3C-8219-E4A7615A0F93}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4381499" y="7205871"/>
-          <a:ext cx="700448" cy="311496"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" cap="none" spc="0">
-              <a:ln w="0"/>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:schemeClr val="dk1">
-                    <a:alpha val="40000"/>
-                  </a:schemeClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </a:rPr>
-            <a:t>qdivgtt</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="0" cap="none" spc="0">
-            <a:ln w="0"/>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:effectLst>
-              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                <a:schemeClr val="dk1">
-                  <a:alpha val="40000"/>
-                </a:schemeClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -733,8 +475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A5" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -745,14 +487,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:6" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
@@ -777,12 +519,12 @@
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" ht="111.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
     </row>
     <row r="6" spans="1:6" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
@@ -807,12 +549,12 @@
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" ht="111.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
     </row>
     <row r="9" spans="1:6" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
@@ -837,12 +579,12 @@
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" ht="111.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
     </row>
     <row r="12" spans="1:6" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
@@ -867,16 +609,20 @@
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" ht="111.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
     </row>
     <row r="15" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
+      <c r="A15" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
     </row>
     <row r="16" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
@@ -891,7 +637,6 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.196850393700787" right="0.196850393700787" top="0.196850393700787" bottom="0.196850393700787" header="0" footer="0"/>
   <pageSetup paperSize="11" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/输液单.xlsx
+++ b/输液单.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\IVSlip\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F955AD92-B336-48F4-B12D-2FBB52CD1B69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89899FEA-FBB3-4309-8BE8-F0A7998D6556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11355" yWindow="4770" windowWidth="27045" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="打印页" sheetId="1" r:id="rId1"/>
@@ -475,8 +475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A5" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/输液单.xlsx
+++ b/输液单.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\IVSlip\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89899FEA-FBB3-4309-8BE8-F0A7998D6556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8401CA6A-7745-49CF-9CC7-57E6617516D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5565" yWindow="3045" windowWidth="27045" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="打印页" sheetId="1" r:id="rId1"/>
@@ -168,7 +168,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -176,9 +176,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -186,9 +183,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -197,6 +191,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +479,7 @@
   <dimension ref="A2:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -487,14 +490,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:6" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
@@ -505,26 +508,26 @@
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="10"/>
+      <c r="C4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3" t="s">
+      <c r="D4" s="10"/>
+      <c r="E4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="3"/>
+      <c r="F4" s="10"/>
     </row>
     <row r="5" spans="1:6" ht="111.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:6" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
@@ -535,26 +538,26 @@
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3" t="s">
+      <c r="B7" s="10"/>
+      <c r="C7" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3" t="s">
+      <c r="D7" s="10"/>
+      <c r="E7" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="3"/>
+      <c r="F7" s="10"/>
     </row>
     <row r="8" spans="1:6" ht="111.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
     </row>
     <row r="9" spans="1:6" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
@@ -565,74 +568,77 @@
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3" t="s">
+      <c r="B10" s="10"/>
+      <c r="C10" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3" t="s">
+      <c r="D10" s="10"/>
+      <c r="E10" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="3"/>
+      <c r="F10" s="10"/>
     </row>
     <row r="11" spans="1:6" ht="111.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
     </row>
     <row r="12" spans="1:6" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3" t="s">
+      <c r="B13" s="10"/>
+      <c r="C13" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3" t="s">
+      <c r="D13" s="10"/>
+      <c r="E13" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F13" s="3"/>
+      <c r="F13" s="10"/>
     </row>
     <row r="14" spans="1:6" ht="111.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
     </row>
     <row r="15" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="A8:F8"/>
     <mergeCell ref="A11:F11"/>
     <mergeCell ref="A14:F14"/>
+    <mergeCell ref="B15:D15"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.196850393700787" right="0.196850393700787" top="0.196850393700787" bottom="0.196850393700787" header="0" footer="0"/>
@@ -650,10 +656,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.75" style="5" customWidth="1"/>
-    <col min="2" max="4" width="9" style="5"/>
-    <col min="5" max="5" width="9.75" style="5" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="13.75" style="4" customWidth="1"/>
+    <col min="2" max="4" width="9" style="4"/>
+    <col min="5" max="5" width="9.75" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="4"/>
   </cols>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/输液单.xlsx
+++ b/输液单.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\IVSlip\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8401CA6A-7745-49CF-9CC7-57E6617516D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49B13A35-2604-46DB-81B6-34672EABE07C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5565" yWindow="3045" windowWidth="27045" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="42540" yWindow="4125" windowWidth="27045" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="打印页" sheetId="1" r:id="rId1"/>
@@ -34,30 +34,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="5">
   <si>
     <t>史中英诊所输液单</t>
   </si>
   <si>
-    <t>1# 姓名：</t>
+    <t xml:space="preserve">  药费: ￥</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>性别：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>年龄：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2# 姓名：</t>
-  </si>
-  <si>
-    <t>3# 姓名：</t>
-  </si>
-  <si>
-    <t>4# 姓名：</t>
-  </si>
-  <si>
-    <t>药费: ￥</t>
+    <t xml:space="preserve">  1# 姓名：</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -65,7 +59,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,15 +90,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -168,7 +153,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -180,11 +165,8 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -192,13 +174,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -478,26 +460,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A5" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="10.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18" style="1" customWidth="1"/>
+    <col min="2" max="3" width="10.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.625" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:6" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
@@ -508,26 +493,26 @@
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="9" t="s">
+      <c r="A4" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="9" t="s">
+      <c r="C4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="10"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:6" ht="111.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:6" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
@@ -538,26 +523,26 @@
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="9" t="s">
+      <c r="B7" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="9" t="s">
+      <c r="C7" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="10"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:6" ht="111.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:6" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
@@ -568,26 +553,26 @@
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="9" t="s">
+      <c r="A10" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="9" t="s">
+      <c r="C10" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="10"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:6" ht="111.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
     </row>
     <row r="12" spans="1:6" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
@@ -598,47 +583,47 @@
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="9" t="s">
+      <c r="A13" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="9" t="s">
+      <c r="C13" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F13" s="10"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:6" ht="111.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
     </row>
     <row r="15" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
+      <c r="A15" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
     </row>
     <row r="16" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="E15:F15"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="A8:F8"/>
     <mergeCell ref="A11:F11"/>
     <mergeCell ref="A14:F14"/>
-    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:F15"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.196850393700787" right="0.196850393700787" top="0.196850393700787" bottom="0.196850393700787" header="0" footer="0"/>

--- a/输液单.xlsx
+++ b/输液单.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\IVSlip\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49B13A35-2604-46DB-81B6-34672EABE07C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA3A719-3BD4-4573-A8AC-D3B2C178B72A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="42540" yWindow="4125" windowWidth="27045" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -168,6 +168,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -175,12 +181,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -460,8 +460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A5" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:B15"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -475,14 +475,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:6" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
@@ -493,26 +493,26 @@
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="5"/>
-      <c r="E4" s="9"/>
+      <c r="E4" s="6"/>
       <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:6" ht="111.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
     </row>
     <row r="6" spans="1:6" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
@@ -523,26 +523,26 @@
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D7" s="5"/>
-      <c r="E7" s="9"/>
+      <c r="E7" s="6"/>
       <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:6" ht="111.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
     </row>
     <row r="9" spans="1:6" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
@@ -553,26 +553,26 @@
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D10" s="5"/>
-      <c r="E10" s="9"/>
+      <c r="E10" s="6"/>
       <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:6" ht="111.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
     </row>
     <row r="12" spans="1:6" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
@@ -583,47 +583,47 @@
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D13" s="5"/>
-      <c r="E13" s="9"/>
+      <c r="E13" s="6"/>
       <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:6" ht="111.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
     </row>
     <row r="15" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
     </row>
     <row r="16" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:F15"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="A8:F8"/>
     <mergeCell ref="A11:F11"/>
     <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:F15"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.196850393700787" right="0.196850393700787" top="0.196850393700787" bottom="0.196850393700787" header="0" footer="0"/>

--- a/输液单.xlsx
+++ b/输液单.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\IVSlip\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA3A719-3BD4-4573-A8AC-D3B2C178B72A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88FEB24B-315F-4CBD-AD7B-FAAF4364C9D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42540" yWindow="4125" windowWidth="27045" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="46455" yWindow="3870" windowWidth="27045" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="打印页" sheetId="1" r:id="rId1"/>
     <sheet name="数据页" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">打印页!$A$1:$F$16</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,10 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="5">
-  <si>
-    <t>史中英诊所输液单</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="6">
   <si>
     <t xml:space="preserve">  药费: ￥</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -52,6 +52,14 @@
   </si>
   <si>
     <t xml:space="preserve">  1# 姓名：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">           史中英诊所输液单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  日期:   </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -153,7 +161,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -174,14 +182,20 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -461,7 +475,7 @@
   <dimension ref="A2:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -474,15 +488,15 @@
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
+    <row r="2" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
     </row>
     <row r="3" spans="1:6" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
@@ -494,25 +508,25 @@
     </row>
     <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>2</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>3</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="6"/>
       <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:6" ht="111.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
     </row>
     <row r="6" spans="1:6" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
@@ -524,25 +538,25 @@
     </row>
     <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>2</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>3</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="6"/>
       <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:6" ht="111.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
     </row>
     <row r="9" spans="1:6" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
@@ -554,25 +568,25 @@
     </row>
     <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>2</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>3</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="6"/>
       <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:6" ht="111.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
     </row>
     <row r="12" spans="1:6" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
@@ -584,29 +598,29 @@
     </row>
     <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B13" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>2</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>3</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="6"/>
       <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:6" ht="111.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
     </row>
     <row r="15" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -614,9 +628,15 @@
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
     </row>
-    <row r="16" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="9"/>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="A16:B16"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="C15:F15"/>
     <mergeCell ref="A2:F2"/>

--- a/输液单.xlsx
+++ b/输液单.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\IVSlip\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88FEB24B-315F-4CBD-AD7B-FAAF4364C9D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="46455" yWindow="3870" windowWidth="27045" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="18024" windowHeight="9324"/>
   </bookViews>
   <sheets>
     <sheet name="打印页" sheetId="1" r:id="rId1"/>
@@ -39,35 +33,35 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="6">
   <si>
-    <t xml:space="preserve">  药费: ￥</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t xml:space="preserve">           史中英诊所输液单</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1# 姓名：</t>
   </si>
   <si>
     <t>性别：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>年龄：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">  1# 姓名：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">           史中英诊所输液单</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t xml:space="preserve">  药费: ￥</t>
   </si>
   <si>
     <t xml:space="preserve">  日期:   </t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,34 +73,162 @@
       <sz val="18"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -115,12 +237,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79995117038483843"/>
+        <fgColor theme="9" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -157,58 +465,344 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -466,161 +1060,161 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A2:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="18" style="1" customWidth="1"/>
-    <col min="2" max="3" width="10.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="18" style="2" customWidth="1"/>
+    <col min="2" max="3" width="10.6296296296296" style="2" customWidth="1"/>
+    <col min="4" max="4" width="6.12962962962963" style="2" customWidth="1"/>
+    <col min="5" max="5" width="5.37962962962963" style="2" customWidth="1"/>
+    <col min="6" max="6" width="16.6296296296296" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+    <row r="2" ht="23.25" customHeight="1" spans="1:6">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" ht="6.95" customHeight="1" spans="1:6">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" ht="20.1" customHeight="1" spans="1:6">
+      <c r="A4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" ht="111.95" customHeight="1" spans="1:6">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" ht="6.95" customHeight="1" spans="1:6">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" ht="20.1" customHeight="1" spans="1:6">
+      <c r="A7" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" ht="111.95" customHeight="1" spans="1:6">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9" ht="6.95" customHeight="1" spans="1:6">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" ht="20.1" customHeight="1" spans="1:6">
+      <c r="A10" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" ht="111.95" customHeight="1" spans="1:6">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" ht="6.95" customHeight="1" spans="1:6">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+    </row>
+    <row r="13" ht="20.1" customHeight="1" spans="1:6">
+      <c r="A13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" ht="111.95" customHeight="1" spans="1:6">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" ht="24" customHeight="1" spans="1:6">
+      <c r="A15" s="10" t="s">
         <v>4</v>
-      </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-    </row>
-    <row r="3" spans="1:6" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="5"/>
-    </row>
-    <row r="5" spans="1:6" ht="111.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-    </row>
-    <row r="6" spans="1:6" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="5"/>
-    </row>
-    <row r="8" spans="1:6" ht="111.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-    </row>
-    <row r="9" spans="1:6" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="5"/>
-    </row>
-    <row r="11" spans="1:6" ht="111.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-    </row>
-    <row r="12" spans="1:6" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="5"/>
-    </row>
-    <row r="14" spans="1:6" ht="111.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-    </row>
-    <row r="15" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="10" t="s">
-        <v>0</v>
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -628,46 +1222,47 @@
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
     </row>
-    <row r="16" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="8" t="s">
+    <row r="16" ht="18" customHeight="1" spans="1:2">
+      <c r="A16" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="9"/>
+      <c r="B16" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:F15"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="A8:F8"/>
     <mergeCell ref="A11:F11"/>
     <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="A16:B16"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.196850393700787" right="0.196850393700787" top="0.196850393700787" bottom="0.196850393700787" header="0" footer="0"/>
-  <pageSetup paperSize="11" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="11" scale="97" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="13.75" style="4" customWidth="1"/>
-    <col min="2" max="4" width="9" style="4"/>
-    <col min="5" max="5" width="9.75" style="4" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="13.75" style="1" customWidth="1"/>
+    <col min="2" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="9.75" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/输液单.xlsx
+++ b/输液单.xlsx
@@ -11,7 +11,7 @@
     <sheet name="数据页" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">打印页!$A$1:$F$16</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">打印页!$A$1:$F$15</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,10 +45,10 @@
     <t>年龄：</t>
   </si>
   <si>
-    <t xml:space="preserve">  药费: ￥</t>
+    <t xml:space="preserve">  日期:   </t>
   </si>
   <si>
-    <t xml:space="preserve">  日期:   </t>
+    <t>药费: ￥</t>
   </si>
 </sst>
 </file>
@@ -237,7 +237,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799951170384838"/>
+        <fgColor theme="9" tint="0.799920651875362"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -711,7 +711,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -723,7 +723,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -739,9 +739,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1068,8 +1071,8 @@
   <sheetPr/>
   <dimension ref="A2:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="5"/>
@@ -1114,7 +1117,7 @@
       <c r="E4" s="7"/>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" ht="111.95" customHeight="1" spans="1:6">
+    <row r="5" ht="120" customHeight="1" spans="1:6">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -1144,7 +1147,7 @@
       <c r="E7" s="7"/>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" ht="111.95" customHeight="1" spans="1:6">
+    <row r="8" ht="120" customHeight="1" spans="1:6">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -1174,7 +1177,7 @@
       <c r="E10" s="7"/>
       <c r="F10" s="6"/>
     </row>
-    <row r="11" ht="111.95" customHeight="1" spans="1:6">
+    <row r="11" ht="120" customHeight="1" spans="1:6">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -1204,7 +1207,7 @@
       <c r="E13" s="7"/>
       <c r="F13" s="6"/>
     </row>
-    <row r="14" ht="111.95" customHeight="1" spans="1:6">
+    <row r="14" ht="120" customHeight="1" spans="1:6">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -1212,31 +1215,30 @@
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
     </row>
-    <row r="15" ht="24" customHeight="1" spans="1:6">
+    <row r="15" ht="21" customHeight="1" spans="1:6">
       <c r="A15" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
+      <c r="B15" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
     </row>
     <row r="16" ht="18" customHeight="1" spans="1:2">
-      <c r="A16" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="12"/>
+      <c r="A16" s="12"/>
+      <c r="B16" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="7">
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="A8:F8"/>
     <mergeCell ref="A11:F11"/>
     <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="B15:F15"/>
     <mergeCell ref="A16:B16"/>
   </mergeCells>
   <pageMargins left="0.196850393700787" right="0.196850393700787" top="0.196850393700787" bottom="0.196850393700787" header="0" footer="0"/>
